--- a/publication/results/fit_plane/idpt_cm0.5_bin-rz_mean-rmse-z.xlsx
+++ b/publication/results/fit_plane/idpt_cm0.5_bin-rz_mean-rmse-z.xlsx
@@ -495,28 +495,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9515494493280764</v>
+        <v>0.9515494493280773</v>
       </c>
       <c r="C2" t="n">
         <v>2.070593013809916</v>
       </c>
       <c r="D2" t="n">
-        <v>259.3467258830917</v>
+        <v>259.3467258830887</v>
       </c>
       <c r="E2" t="n">
-        <v>2.302948962984184</v>
+        <v>2.302949523011714</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.003799151821184979</v>
+        <v>-0.003798389796727079</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2840702936407691</v>
+        <v>0.2840700369580191</v>
       </c>
       <c r="H2" t="n">
-        <v>414.9547614129468</v>
+        <v>414.9547614129419</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4173164915760085</v>
+        <v>0.4173163711173047</v>
       </c>
       <c r="J2" t="n">
         <v>450</v>
@@ -533,28 +533,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9572225285766784</v>
+        <v>0.9572225285766791</v>
       </c>
       <c r="C3" t="n">
         <v>2.545841318512846</v>
       </c>
       <c r="D3" t="n">
-        <v>193.1605697832039</v>
+        <v>193.1605697831881</v>
       </c>
       <c r="E3" t="n">
-        <v>2.819119278701618</v>
+        <v>2.819119290616689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001039159173767398</v>
+        <v>0.001039379352810939</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2555843703243625</v>
+        <v>0.2555844363344323</v>
       </c>
       <c r="H3" t="n">
-        <v>309.0569116531262</v>
+        <v>309.0569116531009</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3882078897619909</v>
+        <v>0.3882079155745575</v>
       </c>
       <c r="J3" t="n">
         <v>300</v>
@@ -571,28 +571,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9598714290818392</v>
+        <v>0.9598714290818398</v>
       </c>
       <c r="C4" t="n">
         <v>2.826073131955491</v>
       </c>
       <c r="D4" t="n">
-        <v>93.17057006687199</v>
+        <v>93.17057006685914</v>
       </c>
       <c r="E4" t="n">
-        <v>3.106783833729685</v>
+        <v>3.106783975914671</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0009446418372452851</v>
+        <v>0.0009449923660598132</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2443529831472406</v>
+        <v>0.2443530406967952</v>
       </c>
       <c r="H4" t="n">
-        <v>149.0729121069952</v>
+        <v>149.0729121069746</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3636654654636551</v>
+        <v>0.3636655446710036</v>
       </c>
       <c r="J4" t="n">
         <v>150</v>
